--- a/biology/Botanique/Dillhoffia/Dillhoffia.xlsx
+++ b/biology/Botanique/Dillhoffia/Dillhoffia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dillhoffia cachensis
 Dillhoffia est un genre éteint dont la position au sein des plantes à fleurs est mal définie.
-Une seule espèce, Dillhoffia cachensis, est connue à ce jour. Elle a été découverte dans des sédiments lacustres datés de l'Éocène inférieur, dans la région de la vallée de l'Okanagan située dans le sud de la Colombie-Britannique au Canada[1]. 
+Une seule espèce, Dillhoffia cachensis, est connue à ce jour. Elle a été découverte dans des sédiments lacustres datés de l'Éocène inférieur, dans la région de la vallée de l'Okanagan située dans le sud de la Colombie-Britannique au Canada. 
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre est nommé en hommage aux frères Richard et Thomas Dillhoff.
 </t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dillhoffia cachensis n’est connue que par ses infrutescences. Ses fruits sont allongés et de forme ellipsoïdale, mesurant 1,8 à 2,9 centimètres de diamètre. On ne connaît néanmoins aucun détail sur l’aspect des étamines, du pollen et de la morphologie interne de cette plante[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dillhoffia cachensis n’est connue que par ses infrutescences. Ses fruits sont allongés et de forme ellipsoïdale, mesurant 1,8 à 2,9 centimètres de diamètre. On ne connaît néanmoins aucun détail sur l’aspect des étamines, du pollen et de la morphologie interne de cette plante.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Datation précise</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2010, une datation radiométrique a affiné l'âge de ces plantes fossiles en se basant sur la méthode argon-argon (40Ar/39Ar)[3]. L'âge obtenu est de 52,9 Ma (millions d'années) avec une incertitude de 0,83 Ma, ce qui date ces fossiles de l'Yprésien dans l'Éocène inférieur.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, une datation radiométrique a affiné l'âge de ces plantes fossiles en se basant sur la méthode argon-argon (40Ar/39Ar). L'âge obtenu est de 52,9 Ma (millions d'années) avec une incertitude de 0,83 Ma, ce qui date ces fossiles de l'Yprésien dans l'Éocène inférieur.
 </t>
         </is>
       </c>
